--- a/内部编号列表/[hack]Ultra Wide Expansion.xlsx
+++ b/内部编号列表/[hack]Ultra Wide Expansion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="20240806 单人玩家" sheetId="1" r:id="rId1"/>
@@ -5701,8 +5701,8 @@
   <sheetPr/>
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5710,15 +5710,15 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.25" style="2" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5555555555556" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
     <col min="13" max="13" width="30" style="3" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="18.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6296296296296" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="29.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="29.8796296296296" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/内部编号列表/[hack]Ultra Wide Expansion.xlsx
+++ b/内部编号列表/[hack]Ultra Wide Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="535">
   <si>
     <r>
       <rPr>
@@ -4530,6 +4530,17 @@
     <t>潜水僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子弹编号</t>
+    </r>
+  </si>
+  <si>
     <t>148</t>
   </si>
   <si>
@@ -4547,24 +4558,101 @@
     <t>雪橇车僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子弹名称</t>
+    </r>
+  </si>
+  <si>
     <t>雪橇僵尸小队</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆</t>
+    </r>
+  </si>
+  <si>
     <t>海豚骑士僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰豌豆</t>
+    </r>
+  </si>
+  <si>
     <t>玩偶匣僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷心菜</t>
+    </r>
+  </si>
+  <si>
     <t>气球僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>矿工僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孢子</t>
+    </r>
+  </si>
+  <si>
     <t>跳跳僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>雪人僵尸</t>
   </si>
   <si>
@@ -4577,24 +4665,90 @@
     <t>篮球僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+  </si>
+  <si>
     <t>巨人僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米粒</t>
+    </r>
+  </si>
+  <si>
     <t>小鬼僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米棒</t>
+    </r>
+  </si>
+  <si>
     <t>女鬼僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄油</t>
+    </r>
+  </si>
+  <si>
     <t>忍者小鬼僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰卷心菜</t>
+    </r>
+  </si>
+  <si>
     <t>僵王博士</t>
   </si>
   <si>
     <t>豌豆射手僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紫块</t>
+    </r>
+  </si>
+  <si>
     <t>坚果墙僵尸</t>
   </si>
   <si>
@@ -4607,16 +4761,114 @@
     <t>窝瓜僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超高伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>高坚果僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流星</t>
+    </r>
+  </si>
+  <si>
     <t>魅惑菇僵尸</t>
   </si>
   <si>
     <t>爆炸坚果僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>穿透</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>暴走巨人僵尸</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿色的孢子</t>
+    </r>
   </si>
   <si>
     <t>超级橄榄球僵尸</t>
@@ -5326,7 +5578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5366,6 +5618,15 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5373,6 +5634,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5701,8 +5965,8 @@
   <sheetPr/>
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5744,7 +6008,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="13"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
@@ -8538,15 +8802,20 @@
       <c r="I53" s="7" t="s">
         <v>483</v>
       </c>
+      <c r="K53" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
       <c r="N53"/>
       <c r="Q53" s="7" t="s">
         <v>332</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:14">
@@ -8575,11 +8844,20 @@
         <v>188</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="N54"/>
     </row>
-    <row r="55" customHeight="1" spans="1:14">
+    <row r="55" customHeight="1" spans="1:19">
       <c r="A55" s="4" t="s">
         <v>201</v>
       </c>
@@ -8605,11 +8883,25 @@
         <v>202</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>490</v>
       </c>
       <c r="N55"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:14">
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:19">
       <c r="A56" s="4" t="s">
         <v>214</v>
       </c>
@@ -8635,11 +8927,25 @@
         <v>215</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>492</v>
       </c>
       <c r="N56"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:9">
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="4" t="s">
         <v>226</v>
       </c>
@@ -8665,10 +8971,19 @@
         <v>227</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:9">
+        <v>493</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:13">
       <c r="A58" s="4" t="s">
         <v>158</v>
       </c>
@@ -8694,10 +9009,19 @@
         <v>236</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:9">
+        <v>495</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:13">
       <c r="A59" s="4" t="s">
         <v>173</v>
       </c>
@@ -8723,10 +9047,19 @@
         <v>245</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:9">
+        <v>497</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:13">
       <c r="A60" s="4" t="s">
         <v>188</v>
       </c>
@@ -8752,10 +9085,19 @@
         <v>254</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:9">
+        <v>499</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:13">
       <c r="A61" s="4" t="s">
         <v>202</v>
       </c>
@@ -8781,10 +9123,19 @@
         <v>263</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:9">
+        <v>501</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:13">
       <c r="A62" s="4" t="s">
         <v>215</v>
       </c>
@@ -8810,10 +9161,19 @@
         <v>272</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:9">
+        <v>502</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:13">
       <c r="A63" s="4" t="s">
         <v>227</v>
       </c>
@@ -8839,10 +9199,19 @@
         <v>281</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:9">
+        <v>503</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:13">
       <c r="A64" s="4" t="s">
         <v>236</v>
       </c>
@@ -8868,10 +9237,19 @@
         <v>8</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:9">
+        <v>504</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:13">
       <c r="A65" s="4" t="s">
         <v>245</v>
       </c>
@@ -8897,10 +9275,19 @@
         <v>24</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:9">
+        <v>506</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:13">
       <c r="A66" s="4" t="s">
         <v>254</v>
       </c>
@@ -8926,10 +9313,19 @@
         <v>40</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:9">
+        <v>508</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:13">
       <c r="A67" s="4" t="s">
         <v>263</v>
       </c>
@@ -8954,11 +9350,20 @@
       <c r="H67" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I67" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:9">
+      <c r="I67" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:13">
       <c r="A68" s="4" t="s">
         <v>328</v>
       </c>
@@ -8983,11 +9388,20 @@
       <c r="H68" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:9">
+      <c r="I68" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:13">
       <c r="A69" s="4" t="s">
         <v>339</v>
       </c>
@@ -9012,11 +9426,20 @@
       <c r="H69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I69" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:9">
+      <c r="I69" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:13">
       <c r="A70" s="4" t="s">
         <v>350</v>
       </c>
@@ -9041,11 +9464,20 @@
       <c r="H70" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I70" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:9">
+      <c r="I70" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:13">
       <c r="A71" s="4" t="s">
         <v>360</v>
       </c>
@@ -9070,11 +9502,20 @@
       <c r="H71" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I71" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:9">
+      <c r="I71" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:13">
       <c r="A72" s="4" t="s">
         <v>370</v>
       </c>
@@ -9099,11 +9540,20 @@
       <c r="H72" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="I72" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:9">
+      <c r="I72" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:13">
       <c r="A73" s="4" t="s">
         <v>378</v>
       </c>
@@ -9128,11 +9578,20 @@
       <c r="H73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:9">
+      <c r="I73" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:13">
       <c r="A74" s="4" t="s">
         <v>272</v>
       </c>
@@ -9157,11 +9616,20 @@
       <c r="H74" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I74" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:9">
+      <c r="I74" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:13">
       <c r="A75" s="4" t="s">
         <v>281</v>
       </c>
@@ -9186,11 +9654,20 @@
       <c r="H75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I75" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:9">
+      <c r="I75" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:13">
       <c r="A76" s="4" t="s">
         <v>8</v>
       </c>
@@ -9215,11 +9692,20 @@
       <c r="H76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:9">
+      <c r="I76" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:13">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
@@ -9244,11 +9730,20 @@
       <c r="H77" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:9">
+      <c r="I77" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:13">
       <c r="A78" s="4" t="s">
         <v>40</v>
       </c>
@@ -9273,8 +9768,17 @@
       <c r="H78" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I78" s="15" t="s">
-        <v>510</v>
+      <c r="I78" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L78" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:9">
@@ -9302,8 +9806,8 @@
       <c r="H79" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I79" s="15" t="s">
-        <v>511</v>
+      <c r="I79" s="18" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
@@ -9331,11 +9835,11 @@
       <c r="H80" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I80" s="15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:9">
+      <c r="I80" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:13">
       <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
@@ -9360,11 +9864,14 @@
       <c r="H81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I81" s="15" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:9">
+      <c r="I81" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81" s="19"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:12">
       <c r="A82" s="4" t="s">
         <v>100</v>
       </c>
@@ -9380,42 +9887,133 @@
       <c r="H82" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="15" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="7:9">
+      <c r="I82" s="18" t="s">
+        <v>532</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+    </row>
+    <row r="83" customHeight="1" spans="7:12">
       <c r="G83" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I83" s="15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="7:9">
+      <c r="I83" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+    </row>
+    <row r="84" customHeight="1" spans="7:12">
       <c r="G84" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I84" s="15" t="s">
-        <v>516</v>
-      </c>
+      <c r="I84" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84"/>
+    </row>
+    <row r="85" customHeight="1" spans="11:12">
+      <c r="K85"/>
+      <c r="L85"/>
+    </row>
+    <row r="86" customHeight="1" spans="11:12">
+      <c r="K86"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" customHeight="1" spans="11:12">
+      <c r="K87"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" customHeight="1" spans="11:12">
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" customHeight="1" spans="11:12">
+      <c r="K89"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" customHeight="1" spans="11:12">
+      <c r="K90"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" customHeight="1" spans="11:12">
+      <c r="K91"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" customHeight="1" spans="11:12">
+      <c r="K92"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" customHeight="1" spans="11:12">
+      <c r="K93"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" customHeight="1" spans="11:12">
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" customHeight="1" spans="11:12">
+      <c r="K95"/>
+      <c r="L95"/>
+    </row>
+    <row r="96" customHeight="1" spans="11:12">
+      <c r="K96"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" customHeight="1" spans="11:12">
+      <c r="K97"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" customHeight="1" spans="11:12">
+      <c r="K98"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" customHeight="1" spans="11:12">
+      <c r="K99"/>
+      <c r="L99"/>
+    </row>
+    <row r="100" customHeight="1" spans="11:12">
+      <c r="K100"/>
+      <c r="L100"/>
+    </row>
+    <row r="101" customHeight="1" spans="11:12">
+      <c r="K101"/>
+      <c r="L101"/>
+    </row>
+    <row r="102" customHeight="1" spans="11:12">
+      <c r="K102"/>
+      <c r="L102"/>
+    </row>
+    <row r="103" customHeight="1" spans="11:12">
+      <c r="K103"/>
+      <c r="L103"/>
+    </row>
+    <row r="104" customHeight="1" spans="11:12">
+      <c r="K104"/>
+      <c r="L104"/>
+    </row>
+    <row r="105" customHeight="1" spans="11:12">
+      <c r="K105"/>
+      <c r="L105"/>
     </row>
     <row r="106" customHeight="1" spans="1:1">
-      <c r="A106" s="14"/>
+      <c r="A106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K53:M53"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
